--- a/biology/Zoologie/Ariane_à_ventre_blanc/Ariane_à_ventre_blanc.xlsx
+++ b/biology/Zoologie/Ariane_à_ventre_blanc/Ariane_à_ventre_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ariane_%C3%A0_ventre_blanc</t>
+          <t>Ariane_à_ventre_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elliotomyia chionogaster
 L’Ariane à ventre blanc (Elliotomyia chionogaster) est une espèce d'oiseaux de la famille des Trochilidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ariane_%C3%A0_ventre_blanc</t>
+          <t>Ariane_à_ventre_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est présent à travers la puna.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ariane_%C3%A0_ventre_blanc</t>
+          <t>Ariane_à_ventre_blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales et subtropicales humides de basses et hautes altitudes, la savane sèche, la végétation de broussailles sèche ou humide d'altitude mais aussi les anciennes forêts lourdement dégradées, les plantations agricoles et les jardins ruraux.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ariane_%C3%A0_ventre_blanc</t>
+          <t>Ariane_à_ventre_blanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Alan P. Peterson, 2 sous-espèces ont été décrites :
 E. chionogaster chionogaster (Tschudi, 1846) ;
